--- a/산출물/테이블 명세서/MiniPX_테이블 명세서_V0.4.xlsx
+++ b/산출물/테이블 명세서/MiniPX_테이블 명세서_V0.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\miniPX\산출물\테이블 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{6EE21D3C-A324-4BF5-9B45-96D4BB3605F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668D0F66-5E20-42FD-B107-73C6A12BA1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" firstSheet="1" activeTab="5" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="개정이력" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="용어 사전" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="996">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3454,6 +3453,10 @@
   </si>
   <si>
     <t>신규상품주문상세 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 소문자로 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4173,8 +4176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96E71E9-50F8-40BF-BE98-DCB2D45777B8}">
   <dimension ref="B2:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4255,10 +4258,18 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="24">
+        <v>46006</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="4"/>
@@ -4384,8 +4395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3FA1B2-35B2-404A-91D2-564CF6C84D17}">
   <dimension ref="B2:J215"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A56" sqref="A53:XFD56"/>
+    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J36" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -9560,19 +9571,32 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B154:I154"/>
-    <mergeCell ref="C156:I156"/>
-    <mergeCell ref="B167:I167"/>
-    <mergeCell ref="C169:I169"/>
-    <mergeCell ref="C178:E178"/>
-    <mergeCell ref="F178:I178"/>
-    <mergeCell ref="C180:E180"/>
-    <mergeCell ref="F180:I180"/>
-    <mergeCell ref="C179:E179"/>
-    <mergeCell ref="F179:I179"/>
-    <mergeCell ref="C197:E197"/>
-    <mergeCell ref="F197:I197"/>
-    <mergeCell ref="B182:I182"/>
+    <mergeCell ref="B199:I199"/>
+    <mergeCell ref="C201:I201"/>
+    <mergeCell ref="C213:E213"/>
+    <mergeCell ref="F213:I213"/>
+    <mergeCell ref="C214:E214"/>
+    <mergeCell ref="F214:I214"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="B119:I119"/>
+    <mergeCell ref="C121:I121"/>
+    <mergeCell ref="B97:I97"/>
+    <mergeCell ref="C99:I99"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="B81:I81"/>
+    <mergeCell ref="C83:I83"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="C59:I59"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="B133:I133"/>
@@ -9589,37 +9613,24 @@
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="F116:I116"/>
     <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="C59:I59"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="B119:I119"/>
-    <mergeCell ref="C121:I121"/>
-    <mergeCell ref="B97:I97"/>
-    <mergeCell ref="C99:I99"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="B81:I81"/>
-    <mergeCell ref="C83:I83"/>
-    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C180:E180"/>
+    <mergeCell ref="F180:I180"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="F179:I179"/>
+    <mergeCell ref="C197:E197"/>
+    <mergeCell ref="F197:I197"/>
+    <mergeCell ref="B182:I182"/>
     <mergeCell ref="C184:I184"/>
     <mergeCell ref="C195:E195"/>
     <mergeCell ref="F195:I195"/>
     <mergeCell ref="C196:E196"/>
     <mergeCell ref="F196:I196"/>
-    <mergeCell ref="B199:I199"/>
-    <mergeCell ref="C201:I201"/>
-    <mergeCell ref="C213:E213"/>
-    <mergeCell ref="F213:I213"/>
-    <mergeCell ref="C214:E214"/>
-    <mergeCell ref="F214:I214"/>
+    <mergeCell ref="B154:I154"/>
+    <mergeCell ref="C156:I156"/>
+    <mergeCell ref="B167:I167"/>
+    <mergeCell ref="C169:I169"/>
+    <mergeCell ref="C178:E178"/>
+    <mergeCell ref="F178:I178"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9631,7 +9642,7 @@
   <dimension ref="B2:J72"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -11394,6 +11405,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="B54:I54"/>
     <mergeCell ref="B37:I37"/>
     <mergeCell ref="C39:I39"/>
     <mergeCell ref="C33:E33"/>
@@ -11402,12 +11419,6 @@
     <mergeCell ref="F34:I34"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="F35:I35"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="C56:I56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11418,8 +11429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
   <dimension ref="B2:AA180"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="H19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA19" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -13511,7 +13522,7 @@
         <v>1</v>
       </c>
       <c r="AA73" t="str">
-        <f>_xlfn.CONCAT(IF(B73=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C73:Z73),")")</f>
+        <f t="shared" ref="AA73:AA82" si="3">_xlfn.CONCAT(IF(B73=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C73:Z73),")")</f>
         <v>,("ITEM_SORT_CODE","01","상품명순","Y",1,1,1)</v>
       </c>
     </row>
@@ -13541,7 +13552,7 @@
         <v>1</v>
       </c>
       <c r="AA74" t="str">
-        <f>_xlfn.CONCAT(IF(B74=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C74:Z74),")")</f>
+        <f t="shared" si="3"/>
         <v>,("ITEM_SORT_CODE","02","판매량순","Y",2,1,1)</v>
       </c>
     </row>
@@ -13571,7 +13582,7 @@
         <v>1</v>
       </c>
       <c r="AA75" t="str">
-        <f>_xlfn.CONCAT(IF(B75=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C75:Z75),")")</f>
+        <f t="shared" si="3"/>
         <v>,("ITEM_SORT_CODE","03","낮은 가격순","Y",3,1,1)</v>
       </c>
     </row>
@@ -13601,7 +13612,7 @@
         <v>1</v>
       </c>
       <c r="AA76" t="str">
-        <f>_xlfn.CONCAT(IF(B76=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C76:Z76),")")</f>
+        <f t="shared" si="3"/>
         <v>,("ITEM_SORT_CODE","04","높은 가격순","Y",4,1,1)</v>
       </c>
     </row>
@@ -13631,7 +13642,7 @@
         <v>1</v>
       </c>
       <c r="AA77" t="str">
-        <f>_xlfn.CONCAT(IF(B77=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C77:Z77),")")</f>
+        <f t="shared" si="3"/>
         <v>,("ORDER_STATUS_CODE","01","구매요청","Y",1,1,1)</v>
       </c>
     </row>
@@ -13661,7 +13672,7 @@
         <v>1</v>
       </c>
       <c r="AA78" t="str">
-        <f>_xlfn.CONCAT(IF(B78=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C78:Z78),")")</f>
+        <f t="shared" si="3"/>
         <v>,("ORDER_STATUS_CODE","02","배송중","Y",1,1,1)</v>
       </c>
     </row>
@@ -13691,7 +13702,7 @@
         <v>1</v>
       </c>
       <c r="AA79" t="str">
-        <f>_xlfn.CONCAT(IF(B79=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C79:Z79),")")</f>
+        <f t="shared" si="3"/>
         <v>,("ORDER_STATUS_CODE","03","미결제","Y",1,1,1)</v>
       </c>
     </row>
@@ -13721,7 +13732,7 @@
         <v>1</v>
       </c>
       <c r="AA80" t="str">
-        <f>_xlfn.CONCAT(IF(B80=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C80:Z80),")")</f>
+        <f t="shared" si="3"/>
         <v>,("ORDER_STATUS_CODE","11","구매완료","Y",1,1,1)</v>
       </c>
     </row>
@@ -13751,7 +13762,7 @@
         <v>1</v>
       </c>
       <c r="AA81" t="str">
-        <f>_xlfn.CONCAT(IF(B81=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C81:Z81),")")</f>
+        <f t="shared" si="3"/>
         <v>,("ORDER_STATUS_CODE","12","품절","Y",1,1,1)</v>
       </c>
     </row>
@@ -13781,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="AA82" t="str">
-        <f>_xlfn.CONCAT(IF(B82=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C82:Z82),")")</f>
+        <f t="shared" si="3"/>
         <v>,("ORDER_STATUS_CODE","91","취소","Y",1,1,1)</v>
       </c>
     </row>
@@ -13910,7 +13921,7 @@
         <v>1</v>
       </c>
       <c r="AA87" t="str">
-        <f t="shared" ref="AA87:AA127" si="3">_xlfn.CONCAT(IF(B87=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C87:Z87),")")</f>
+        <f t="shared" ref="AA87:AA127" si="4">_xlfn.CONCAT(IF(B87=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C87:Z87),")")</f>
         <v>("admin","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","관리자",3,1,1)</v>
       </c>
     </row>
@@ -13937,7 +13948,7 @@
         <v>1</v>
       </c>
       <c r="AA88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("user1","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자1",1,1,1)</v>
       </c>
     </row>
@@ -13964,7 +13975,7 @@
         <v>1</v>
       </c>
       <c r="AA89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("user2","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자2",1,1,1)</v>
       </c>
     </row>
@@ -13991,7 +14002,7 @@
         <v>1</v>
       </c>
       <c r="AA90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("user3","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자3",1,1,1)</v>
       </c>
     </row>
@@ -14018,7 +14029,7 @@
         <v>1</v>
       </c>
       <c r="AA91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("user4","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자4",1,1,1)</v>
       </c>
     </row>
@@ -14045,7 +14056,7 @@
         <v>1</v>
       </c>
       <c r="AA92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("user5","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자5",1,1,1)</v>
       </c>
     </row>
@@ -14072,7 +14083,7 @@
         <v>1</v>
       </c>
       <c r="AA93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("user6","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자6",1,1,1)</v>
       </c>
     </row>
@@ -14099,7 +14110,7 @@
         <v>1</v>
       </c>
       <c r="AA94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("user7","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자7",1,1,1)</v>
       </c>
     </row>
@@ -14126,7 +14137,7 @@
         <v>1</v>
       </c>
       <c r="AA95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("user8","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자8",1,1,1)</v>
       </c>
     </row>
@@ -14153,7 +14164,7 @@
         <v>1</v>
       </c>
       <c r="AA96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("user9","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자9",1,1,1)</v>
       </c>
     </row>
@@ -14180,7 +14191,7 @@
         <v>1</v>
       </c>
       <c r="AA97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("user10","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자10",1,1,1)</v>
       </c>
     </row>
@@ -14207,7 +14218,7 @@
         <v>1</v>
       </c>
       <c r="AA98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("user11","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자11",1,1,1)</v>
       </c>
     </row>
@@ -14234,7 +14245,7 @@
         <v>1</v>
       </c>
       <c r="AA99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("user12","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자12",1,1,1)</v>
       </c>
     </row>
@@ -14261,7 +14272,7 @@
         <v>1</v>
       </c>
       <c r="AA100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("user13","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자13",1,1,1)</v>
       </c>
     </row>
@@ -14288,7 +14299,7 @@
         <v>1</v>
       </c>
       <c r="AA101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("user14","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자14",1,1,1)</v>
       </c>
     </row>
@@ -14315,7 +14326,7 @@
         <v>1</v>
       </c>
       <c r="AA102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("user15","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자15",1,1,1)</v>
       </c>
     </row>
@@ -14342,7 +14353,7 @@
         <v>1</v>
       </c>
       <c r="AA103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("user16","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자16",1,1,1)</v>
       </c>
     </row>
@@ -14369,7 +14380,7 @@
         <v>1</v>
       </c>
       <c r="AA104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("user17","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자17",1,1,1)</v>
       </c>
     </row>
@@ -14396,7 +14407,7 @@
         <v>1</v>
       </c>
       <c r="AA105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("user18","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자18",1,1,1)</v>
       </c>
     </row>
@@ -14423,7 +14434,7 @@
         <v>1</v>
       </c>
       <c r="AA106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("user19","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자19",1,1,1)</v>
       </c>
     </row>
@@ -14450,7 +14461,7 @@
         <v>1</v>
       </c>
       <c r="AA107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("user20","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자20",1,1,1)</v>
       </c>
     </row>
@@ -14477,7 +14488,7 @@
         <v>1</v>
       </c>
       <c r="AA108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("guest1","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트1",2,1,1)</v>
       </c>
     </row>
@@ -14504,7 +14515,7 @@
         <v>1</v>
       </c>
       <c r="AA109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("guest2","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트2",2,1,1)</v>
       </c>
     </row>
@@ -14531,7 +14542,7 @@
         <v>1</v>
       </c>
       <c r="AA110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("guest3","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트3",2,1,1)</v>
       </c>
     </row>
@@ -14558,7 +14569,7 @@
         <v>1</v>
       </c>
       <c r="AA111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("guest4","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트4",2,1,1)</v>
       </c>
     </row>
@@ -14585,7 +14596,7 @@
         <v>1</v>
       </c>
       <c r="AA112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("guest5","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트5",2,1,1)</v>
       </c>
     </row>
@@ -14612,7 +14623,7 @@
         <v>1</v>
       </c>
       <c r="AA113" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("guest6","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트6",2,1,1)</v>
       </c>
     </row>
@@ -14639,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="AA114" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("guest7","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트7",2,1,1)</v>
       </c>
     </row>
@@ -14666,7 +14677,7 @@
         <v>1</v>
       </c>
       <c r="AA115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("guest8","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트8",2,1,1)</v>
       </c>
     </row>
@@ -14693,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AA116" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("guest9","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트9",2,1,1)</v>
       </c>
     </row>
@@ -14720,7 +14731,7 @@
         <v>1</v>
       </c>
       <c r="AA117" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("guest10","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트10",2,1,1)</v>
       </c>
     </row>
@@ -14747,7 +14758,7 @@
         <v>1</v>
       </c>
       <c r="AA118" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("guest11","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트11",2,1,1)</v>
       </c>
     </row>
@@ -14774,7 +14785,7 @@
         <v>1</v>
       </c>
       <c r="AA119" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("guest12","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트12",2,1,1)</v>
       </c>
     </row>
@@ -14801,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="AA120" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("guest13","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트13",2,1,1)</v>
       </c>
     </row>
@@ -14828,7 +14839,7 @@
         <v>1</v>
       </c>
       <c r="AA121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("guest14","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트14",2,1,1)</v>
       </c>
     </row>
@@ -14855,7 +14866,7 @@
         <v>1</v>
       </c>
       <c r="AA122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("guest15","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트15",2,1,1)</v>
       </c>
     </row>
@@ -14882,7 +14893,7 @@
         <v>1</v>
       </c>
       <c r="AA123" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("guest16","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트16",2,1,1)</v>
       </c>
     </row>
@@ -14909,7 +14920,7 @@
         <v>1</v>
       </c>
       <c r="AA124" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("guest17","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트17",2,1,1)</v>
       </c>
     </row>
@@ -14936,7 +14947,7 @@
         <v>1</v>
       </c>
       <c r="AA125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("guest18","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트18",2,1,1)</v>
       </c>
     </row>
@@ -14963,7 +14974,7 @@
         <v>1</v>
       </c>
       <c r="AA126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("guest19","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트19",2,1,1)</v>
       </c>
     </row>
@@ -14990,7 +15001,7 @@
         <v>1</v>
       </c>
       <c r="AA127" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,("guest20","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트20",2,1,1)</v>
       </c>
     </row>
@@ -15278,7 +15289,7 @@
         <v>1</v>
       </c>
       <c r="AA139" t="str">
-        <f t="shared" ref="AA139:AA179" si="4">_xlfn.CONCAT(IF(B139=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C139:Z139),")")</f>
+        <f t="shared" ref="AA139:AA179" si="5">_xlfn.CONCAT(IF(B139=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C139:Z139),")")</f>
         <v>(1,3,1,1)</v>
       </c>
     </row>
@@ -15299,7 +15310,7 @@
         <v>1</v>
       </c>
       <c r="AA140" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(2,1,1,1)</v>
       </c>
     </row>
@@ -15320,7 +15331,7 @@
         <v>1</v>
       </c>
       <c r="AA141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(3,1,1,1)</v>
       </c>
     </row>
@@ -15341,7 +15352,7 @@
         <v>1</v>
       </c>
       <c r="AA142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(4,1,1,1)</v>
       </c>
     </row>
@@ -15362,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="AA143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(5,1,1,1)</v>
       </c>
     </row>
@@ -15383,7 +15394,7 @@
         <v>1</v>
       </c>
       <c r="AA144" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(6,1,1,1)</v>
       </c>
     </row>
@@ -15404,7 +15415,7 @@
         <v>1</v>
       </c>
       <c r="AA145" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(7,1,1,1)</v>
       </c>
     </row>
@@ -15425,7 +15436,7 @@
         <v>1</v>
       </c>
       <c r="AA146" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(8,1,1,1)</v>
       </c>
     </row>
@@ -15446,7 +15457,7 @@
         <v>1</v>
       </c>
       <c r="AA147" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(9,1,1,1)</v>
       </c>
     </row>
@@ -15467,7 +15478,7 @@
         <v>1</v>
       </c>
       <c r="AA148" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(10,1,1,1)</v>
       </c>
     </row>
@@ -15488,7 +15499,7 @@
         <v>1</v>
       </c>
       <c r="AA149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(11,1,1,1)</v>
       </c>
     </row>
@@ -15509,7 +15520,7 @@
         <v>1</v>
       </c>
       <c r="AA150" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(12,1,1,1)</v>
       </c>
     </row>
@@ -15530,7 +15541,7 @@
         <v>1</v>
       </c>
       <c r="AA151" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(13,1,1,1)</v>
       </c>
     </row>
@@ -15551,7 +15562,7 @@
         <v>1</v>
       </c>
       <c r="AA152" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(14,1,1,1)</v>
       </c>
     </row>
@@ -15572,7 +15583,7 @@
         <v>1</v>
       </c>
       <c r="AA153" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(15,1,1,1)</v>
       </c>
     </row>
@@ -15593,7 +15604,7 @@
         <v>1</v>
       </c>
       <c r="AA154" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(16,1,1,1)</v>
       </c>
     </row>
@@ -15614,7 +15625,7 @@
         <v>1</v>
       </c>
       <c r="AA155" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(17,1,1,1)</v>
       </c>
     </row>
@@ -15635,7 +15646,7 @@
         <v>1</v>
       </c>
       <c r="AA156" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(18,1,1,1)</v>
       </c>
     </row>
@@ -15656,7 +15667,7 @@
         <v>1</v>
       </c>
       <c r="AA157" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(19,1,1,1)</v>
       </c>
     </row>
@@ -15677,7 +15688,7 @@
         <v>1</v>
       </c>
       <c r="AA158" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(20,1,1,1)</v>
       </c>
     </row>
@@ -15698,7 +15709,7 @@
         <v>1</v>
       </c>
       <c r="AA159" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(21,1,1,1)</v>
       </c>
     </row>
@@ -15719,7 +15730,7 @@
         <v>1</v>
       </c>
       <c r="AA160" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(22,2,1,1)</v>
       </c>
     </row>
@@ -15740,7 +15751,7 @@
         <v>1</v>
       </c>
       <c r="AA161" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(23,2,1,1)</v>
       </c>
     </row>
@@ -15761,7 +15772,7 @@
         <v>1</v>
       </c>
       <c r="AA162" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(24,2,1,1)</v>
       </c>
     </row>
@@ -15782,7 +15793,7 @@
         <v>1</v>
       </c>
       <c r="AA163" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(25,2,1,1)</v>
       </c>
     </row>
@@ -15803,7 +15814,7 @@
         <v>1</v>
       </c>
       <c r="AA164" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(26,2,1,1)</v>
       </c>
     </row>
@@ -15824,7 +15835,7 @@
         <v>1</v>
       </c>
       <c r="AA165" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(27,2,1,1)</v>
       </c>
     </row>
@@ -15845,7 +15856,7 @@
         <v>1</v>
       </c>
       <c r="AA166" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(28,2,1,1)</v>
       </c>
     </row>
@@ -15866,7 +15877,7 @@
         <v>1</v>
       </c>
       <c r="AA167" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(29,2,1,1)</v>
       </c>
     </row>
@@ -15887,7 +15898,7 @@
         <v>1</v>
       </c>
       <c r="AA168" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(30,2,1,1)</v>
       </c>
     </row>
@@ -15908,7 +15919,7 @@
         <v>1</v>
       </c>
       <c r="AA169" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(31,2,1,1)</v>
       </c>
     </row>
@@ -15929,7 +15940,7 @@
         <v>1</v>
       </c>
       <c r="AA170" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(32,2,1,1)</v>
       </c>
     </row>
@@ -15950,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="AA171" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(33,2,1,1)</v>
       </c>
     </row>
@@ -15971,7 +15982,7 @@
         <v>1</v>
       </c>
       <c r="AA172" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(34,2,1,1)</v>
       </c>
     </row>
@@ -15992,7 +16003,7 @@
         <v>1</v>
       </c>
       <c r="AA173" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(35,2,1,1)</v>
       </c>
     </row>
@@ -16013,7 +16024,7 @@
         <v>1</v>
       </c>
       <c r="AA174" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(36,2,1,1)</v>
       </c>
     </row>
@@ -16034,7 +16045,7 @@
         <v>1</v>
       </c>
       <c r="AA175" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(37,2,1,1)</v>
       </c>
     </row>
@@ -16055,7 +16066,7 @@
         <v>1</v>
       </c>
       <c r="AA176" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(38,2,1,1)</v>
       </c>
     </row>
@@ -16076,7 +16087,7 @@
         <v>1</v>
       </c>
       <c r="AA177" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(39,2,1,1)</v>
       </c>
     </row>
@@ -16097,7 +16108,7 @@
         <v>1</v>
       </c>
       <c r="AA178" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(40,2,1,1)</v>
       </c>
     </row>
@@ -16118,7 +16129,7 @@
         <v>1</v>
       </c>
       <c r="AA179" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,(41,2,1,1)</v>
       </c>
     </row>
@@ -16146,8 +16157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7240A289-CEB6-446D-941B-80E534746D53}">
   <dimension ref="B2:X178"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -24998,7 +25009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCCE5D6-4248-4400-A48F-6A536530056C}">
   <dimension ref="B1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
@@ -25215,7 +25226,7 @@
         <v>1</v>
       </c>
       <c r="AA5" t="str">
-        <f>_xlfn.CONCAT(IF(B5=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C5:Z5),")")</f>
+        <f t="shared" ref="AA5:AA11" si="0">_xlfn.CONCAT(IF(B5=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C5:Z5),")")</f>
         <v>(1,"/market","마켓","","",0,"Y","Y",1,1,"상품 관련 대메뉴",1,1)</v>
       </c>
     </row>
@@ -25263,7 +25274,7 @@
         <v>1</v>
       </c>
       <c r="AA6" t="str">
-        <f>_xlfn.CONCAT(IF(B6=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C6:Z6),")")</f>
+        <f t="shared" si="0"/>
         <v>,(2,"/market/itemList","상품","market","itemList",1,"Y","Y",2,1,"상품 정보를 조회할 수 있는 메뉴입니다.",1,1)</v>
       </c>
     </row>
@@ -25311,7 +25322,7 @@
         <v>1</v>
       </c>
       <c r="AA7" t="str">
-        <f>_xlfn.CONCAT(IF(B7=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C7:Z7),")")</f>
+        <f t="shared" si="0"/>
         <v>,(3,"/market/basket","장바구니","market","basket",1,"Y","Y",2,2,"장바구니 정보를 조회할 수 있는 메뉴입니다.",1,1)</v>
       </c>
     </row>
@@ -25359,7 +25370,7 @@
         <v>1</v>
       </c>
       <c r="AA8" t="str">
-        <f>_xlfn.CONCAT(IF(B8=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C8:Z8),")")</f>
+        <f t="shared" si="0"/>
         <v>,(4,"/market/order","주문내역","market","order",1,"Y","Y",2,3,"주문내역 정보를 조회할 수 있는 메뉴입니다.",1,1)</v>
       </c>
     </row>
@@ -25407,7 +25418,7 @@
         <v>1</v>
       </c>
       <c r="AA9" t="str">
-        <f>_xlfn.CONCAT(IF(B9=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C9:Z9),")")</f>
+        <f t="shared" si="0"/>
         <v>,(5,"/market/itemNew","신규상품주문","market","itemNew",1,"Y","Y",2,4,"신규상품주문 정보를 조회할 수 있는 메뉴입니다.",1,1)</v>
       </c>
     </row>
@@ -25455,7 +25466,7 @@
         <v>1</v>
       </c>
       <c r="AA10" t="str">
-        <f>_xlfn.CONCAT(IF(B10=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C10:Z10),")")</f>
+        <f t="shared" si="0"/>
         <v>,(6,"/admin","관리자","","",0,"Y","Y",1,1,"관리자 관련 대메뉴",1,1)</v>
       </c>
     </row>
@@ -25503,7 +25514,7 @@
         <v>1</v>
       </c>
       <c r="AA11" t="str">
-        <f>_xlfn.CONCAT(IF(B11=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C11:Z11),")")</f>
+        <f t="shared" si="0"/>
         <v>,(7,"/admin/admin-home","관리자홈","admin","admin-home",6,"Y","Y",2,2,"관리자가 사이트 현황을 조회할 수 있는 메뉴입니다.",1,1)</v>
       </c>
     </row>
@@ -25904,7 +25915,7 @@
         <v>1</v>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" ref="AA29:AA39" si="0">_xlfn.CONCAT(IF(B29=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C29:Z29),")")</f>
+        <f t="shared" ref="AA29:AA39" si="1">_xlfn.CONCAT(IF(B29=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C29:Z29),")")</f>
         <v>(1,"admin","관리자","admin/adminHome","#","Y","Y",1,"관리자 관련 대메뉴",1,1,1)</v>
       </c>
     </row>
@@ -25950,7 +25961,7 @@
         <v>1</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>,(2,"admin/adminHome","관리자홈","admin/adminHome","admin","Y","Y",2,"관리자가 사이트 현황을 조회할 수 있는 메뉴입니다.",1,1,1)</v>
       </c>
     </row>
@@ -25996,7 +26007,7 @@
         <v>1</v>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>,(8,"admin/manageUser","사용자관리","admin/adminHome","admin","Y","Y",2,"관리자가 사용자 정보를 조회 및 관리할 수 있는 메뉴입니다.",7,1,1)</v>
       </c>
     </row>
@@ -26042,7 +26053,7 @@
         <v>1</v>
       </c>
       <c r="AA32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>,(9,"market","마트","market/basket","#","N","Y",1,"마트 관련 대메뉴",3,1,1)</v>
       </c>
     </row>
@@ -26088,7 +26099,7 @@
         <v>1</v>
       </c>
       <c r="AA33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>,(10,"market/item","상품","market/item","mart","N","Y",2,"상품 목록을 조회 및 관리하는 메뉴입니다.",1,1,1)</v>
       </c>
     </row>
@@ -26134,7 +26145,7 @@
         <v>1</v>
       </c>
       <c r="AA34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>,(11,"market/basket","장바구니","market/basket","mart","N","Y",2,"장바구니에 추가한 상품 목록을 관리하는 메뉴입니다.",2,1,1)</v>
       </c>
     </row>
@@ -26180,7 +26191,7 @@
         <v>1</v>
       </c>
       <c r="AA35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>,(12,"market/request","상품요청","market/request","mart","Y","Y",2,"신규 상품 추가를 요청하는 메뉴입니다.",3,1,1)</v>
       </c>
     </row>
@@ -26226,7 +26237,7 @@
         <v>1</v>
       </c>
       <c r="AA36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>,(13,"info","정보","info/notice","#","Y","Y",1,"정보 관련 대메뉴",6,1,1)</v>
       </c>
     </row>
@@ -26272,7 +26283,7 @@
         <v>1</v>
       </c>
       <c r="AA37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>,(14,"info/notice","공지사항","info/notice","info","Y","Y",2,"공지사항 목록을 조회하는 메뉴입니다.",1,1,1)</v>
       </c>
     </row>
@@ -26318,7 +26329,7 @@
         <v>1</v>
       </c>
       <c r="AA38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>,(15,"user","사용자","user/myPage","#","N","Y",1,"사용자 관련 대메뉴",7,1,1)</v>
       </c>
     </row>
@@ -26364,7 +26375,7 @@
         <v>1</v>
       </c>
       <c r="AA39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>,(16,"user/myPage","마이페이지","user/myPage","user","N","Y",2,"자신의 정보를 조회 및 관리할 수 있는 메뉴입니다.",1,1,1)</v>
       </c>
     </row>
